--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -553,15 +553,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Raed Sayed Foda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد طارق محمد عبدالخالق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -875,7 +866,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E82" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1175,7 +1166,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T82"/>
+  <x:dimension ref="A1:T81"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3122,7 +3113,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45913.7364673958</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3154,7 +3145,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3186,7 +3177,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3218,7 +3209,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3250,7 +3241,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3282,7 +3273,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3314,7 +3305,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3346,7 +3337,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3378,7 +3369,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3410,7 +3401,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3442,7 +3433,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3474,7 +3465,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3506,7 +3497,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3538,7 +3529,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3570,7 +3561,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3602,7 +3593,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3634,7 +3625,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3666,7 +3657,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3698,7 +3689,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3730,7 +3721,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3762,7 +3753,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3794,7 +3785,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E81" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F81" s="2" t="s"/>
       <x:c r="G81" s="2" t="s"/>
@@ -3811,38 +3802,6 @@
       <x:c r="R81" s="2" t="s"/>
       <x:c r="S81" s="2" t="s"/>
       <x:c r="T81" s="2" t="s"/>
-    </x:row>
-    <x:row r="82" spans="1:20">
-      <x:c r="A82" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B82" s="2" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="C82" s="2" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="D82" s="2" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="E82" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F82" s="2" t="s"/>
-      <x:c r="G82" s="2" t="s"/>
-      <x:c r="H82" s="2" t="s"/>
-      <x:c r="I82" s="2" t="s"/>
-      <x:c r="J82" s="2" t="s"/>
-      <x:c r="K82" s="2" t="s"/>
-      <x:c r="L82" s="2" t="s"/>
-      <x:c r="M82" s="2" t="s"/>
-      <x:c r="N82" s="2" t="s"/>
-      <x:c r="O82" s="2" t="s"/>
-      <x:c r="P82" s="2" t="s"/>
-      <x:c r="Q82" s="2" t="s"/>
-      <x:c r="R82" s="2" t="s"/>
-      <x:c r="S82" s="2" t="s"/>
-      <x:c r="T82" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1210253</x:t>
@@ -866,7 +857,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1166,7 +1157,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T81"/>
+  <x:dimension ref="A1:T80"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2345,7 +2336,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2377,7 +2368,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2409,7 +2400,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2441,7 +2432,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2473,7 +2464,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2505,7 +2496,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2537,7 +2528,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2569,7 +2560,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45909.4148355324</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2601,7 +2592,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4148355324</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2633,7 +2624,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2665,7 +2656,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45913.7443521644</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2697,7 +2688,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2729,7 +2720,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2761,7 +2752,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2793,7 +2784,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2825,7 +2816,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45909.415056331</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2857,7 +2848,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.415056331</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2889,7 +2880,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45909.4148507755</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2921,7 +2912,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.4148507755</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2953,7 +2944,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2985,7 +2976,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3017,7 +3008,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3049,7 +3040,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3081,7 +3072,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3113,7 +3104,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3145,7 +3136,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3177,7 +3168,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3209,7 +3200,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3241,7 +3232,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3273,7 +3264,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3305,7 +3296,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3337,7 +3328,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3369,7 +3360,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3401,7 +3392,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3433,7 +3424,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3465,7 +3456,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3497,7 +3488,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3529,7 +3520,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3561,7 +3552,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3593,7 +3584,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3625,7 +3616,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3657,7 +3648,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3689,7 +3680,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3721,7 +3712,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3753,7 +3744,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3770,38 +3761,6 @@
       <x:c r="R80" s="2" t="s"/>
       <x:c r="S80" s="2" t="s"/>
       <x:c r="T80" s="2" t="s"/>
-    </x:row>
-    <x:row r="81" spans="1:20">
-      <x:c r="A81" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B81" s="2" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="C81" s="2" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="D81" s="2" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E81" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F81" s="2" t="s"/>
-      <x:c r="G81" s="2" t="s"/>
-      <x:c r="H81" s="2" t="s"/>
-      <x:c r="I81" s="2" t="s"/>
-      <x:c r="J81" s="2" t="s"/>
-      <x:c r="K81" s="2" t="s"/>
-      <x:c r="L81" s="2" t="s"/>
-      <x:c r="M81" s="2" t="s"/>
-      <x:c r="N81" s="2" t="s"/>
-      <x:c r="O81" s="2" t="s"/>
-      <x:c r="P81" s="2" t="s"/>
-      <x:c r="Q81" s="2" t="s"/>
-      <x:c r="R81" s="2" t="s"/>
-      <x:c r="S81" s="2" t="s"/>
-      <x:c r="T81" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -481,6 +481,15 @@
   </x:si>
   <x:si>
     <x:t>Lujina Shawki Ahmed Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماجد امجد رسمي وديع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
     <x:t>1210158</x:t>
@@ -857,7 +866,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1157,7 +1166,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T80"/>
+  <x:dimension ref="A1:T81"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2848,7 +2857,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2880,7 +2889,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45909.4148507755</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2912,7 +2921,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45909.4148507755</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2944,7 +2953,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2976,7 +2985,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3008,7 +3017,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3040,7 +3049,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3072,7 +3081,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3104,7 +3113,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3136,7 +3145,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3168,7 +3177,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3200,7 +3209,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3232,7 +3241,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3264,7 +3273,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3296,7 +3305,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3328,7 +3337,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3360,7 +3369,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3392,7 +3401,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3424,7 +3433,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3456,7 +3465,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3488,7 +3497,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3520,7 +3529,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3552,7 +3561,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3584,7 +3593,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3616,7 +3625,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3648,7 +3657,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3680,7 +3689,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3712,7 +3721,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3744,7 +3753,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3761,6 +3770,38 @@
       <x:c r="R80" s="2" t="s"/>
       <x:c r="S80" s="2" t="s"/>
       <x:c r="T80" s="2" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:20">
+      <x:c r="A81" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D81" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E81" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F81" s="2" t="s"/>
+      <x:c r="G81" s="2" t="s"/>
+      <x:c r="H81" s="2" t="s"/>
+      <x:c r="I81" s="2" t="s"/>
+      <x:c r="J81" s="2" t="s"/>
+      <x:c r="K81" s="2" t="s"/>
+      <x:c r="L81" s="2" t="s"/>
+      <x:c r="M81" s="2" t="s"/>
+      <x:c r="N81" s="2" t="s"/>
+      <x:c r="O81" s="2" t="s"/>
+      <x:c r="P81" s="2" t="s"/>
+      <x:c r="Q81" s="2" t="s"/>
+      <x:c r="R81" s="2" t="s"/>
+      <x:c r="S81" s="2" t="s"/>
+      <x:c r="T81" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -580,6 +580,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود على عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220023</x:t>
@@ -866,7 +875,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E82" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1166,7 +1175,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T81"/>
+  <x:dimension ref="A1:T82"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3209,7 +3218,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3241,7 +3250,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3273,7 +3282,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3305,7 +3314,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3337,7 +3346,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3369,7 +3378,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3401,7 +3410,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3433,7 +3442,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3465,7 +3474,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3497,7 +3506,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3529,7 +3538,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3561,7 +3570,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3593,7 +3602,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3625,7 +3634,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3657,7 +3666,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3689,7 +3698,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3721,7 +3730,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3753,7 +3762,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3785,7 +3794,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E81" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F81" s="2" t="s"/>
       <x:c r="G81" s="2" t="s"/>
@@ -3802,6 +3811,38 @@
       <x:c r="R81" s="2" t="s"/>
       <x:c r="S81" s="2" t="s"/>
       <x:c r="T81" s="2" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:20">
+      <x:c r="A82" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C82" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D82" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E82" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F82" s="2" t="s"/>
+      <x:c r="G82" s="2" t="s"/>
+      <x:c r="H82" s="2" t="s"/>
+      <x:c r="I82" s="2" t="s"/>
+      <x:c r="J82" s="2" t="s"/>
+      <x:c r="K82" s="2" t="s"/>
+      <x:c r="L82" s="2" t="s"/>
+      <x:c r="M82" s="2" t="s"/>
+      <x:c r="N82" s="2" t="s"/>
+      <x:c r="O82" s="2" t="s"/>
+      <x:c r="P82" s="2" t="s"/>
+      <x:c r="Q82" s="2" t="s"/>
+      <x:c r="R82" s="2" t="s"/>
+      <x:c r="S82" s="2" t="s"/>
+      <x:c r="T82" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1210253</x:t>
@@ -875,7 +884,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E82" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E83" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1175,7 +1184,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T82"/>
+  <x:dimension ref="A1:T83"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2354,7 +2363,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45927.071833912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2418,7 +2427,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2450,7 +2459,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2546,7 +2555,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2578,7 +2587,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4148355324</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2610,7 +2619,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45909.4148355324</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2642,7 +2651,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2674,7 +2683,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2706,7 +2715,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45913.7443521644</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2738,7 +2747,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2770,7 +2779,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2802,7 +2811,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2834,7 +2843,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45909.415056331</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2866,7 +2875,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45922.9121823727</x:v>
+        <x:v>45909.415056331</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2898,7 +2907,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2930,7 +2939,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.4148507755</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2962,7 +2971,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45909.4148507755</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2994,7 +3003,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3026,7 +3035,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3058,7 +3067,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3090,7 +3099,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3122,7 +3131,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3154,7 +3163,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3186,7 +3195,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3218,7 +3227,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3250,7 +3259,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3282,7 +3291,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3314,7 +3323,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3346,7 +3355,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3378,7 +3387,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3410,7 +3419,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3442,7 +3451,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3474,7 +3483,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3506,7 +3515,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3538,7 +3547,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3570,7 +3579,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3602,7 +3611,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3634,7 +3643,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3666,7 +3675,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3698,7 +3707,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3730,7 +3739,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3762,7 +3771,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3794,7 +3803,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E81" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F81" s="2" t="s"/>
       <x:c r="G81" s="2" t="s"/>
@@ -3826,7 +3835,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="E82" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F82" s="2" t="s"/>
       <x:c r="G82" s="2" t="s"/>
@@ -3843,6 +3852,38 @@
       <x:c r="R82" s="2" t="s"/>
       <x:c r="S82" s="2" t="s"/>
       <x:c r="T82" s="2" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:20">
+      <x:c r="A83" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C83" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D83" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E83" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F83" s="2" t="s"/>
+      <x:c r="G83" s="2" t="s"/>
+      <x:c r="H83" s="2" t="s"/>
+      <x:c r="I83" s="2" t="s"/>
+      <x:c r="J83" s="2" t="s"/>
+      <x:c r="K83" s="2" t="s"/>
+      <x:c r="L83" s="2" t="s"/>
+      <x:c r="M83" s="2" t="s"/>
+      <x:c r="N83" s="2" t="s"/>
+      <x:c r="O83" s="2" t="s"/>
+      <x:c r="P83" s="2" t="s"/>
+      <x:c r="Q83" s="2" t="s"/>
+      <x:c r="R83" s="2" t="s"/>
+      <x:c r="S83" s="2" t="s"/>
+      <x:c r="T83" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -51,15 +51,6 @@
     <x:t>Ahmed Essam Elshahat</x:t>
   </x:si>
   <x:si>
-    <x:t>1200787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد على حسين صفيان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AHMED ALY HUSSEIN SAFIAN</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220115</x:t>
   </x:si>
   <x:si>
@@ -285,15 +276,6 @@
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210352</x:t>
   </x:si>
   <x:si>
@@ -438,6 +420,15 @@
     <x:t>Amr Magdy Mohamed Abo Elsoud</x:t>
   </x:si>
   <x:si>
+    <x:t>4220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210409</x:t>
   </x:si>
   <x:si>
@@ -564,6 +555,24 @@
     <x:t>Mohamed Raed Sayed Foda</x:t>
   </x:si>
   <x:si>
+    <x:t>1220275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو ابراهيم المصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed amr ebrahim elmasry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ماهر محمد رفعت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Maher Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220021</x:t>
   </x:si>
   <x:si>
@@ -607,15 +616,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود وليد محمود عبدالرحمن الشايب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
   </x:si>
   <x:si>
     <x:t>1210299</x:t>
@@ -1339,7 +1339,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6647093403</x:v>
+        <x:v>45906.6644295139</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1371,7 +1371,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6644295139</x:v>
+        <x:v>45906.6644641204</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1403,7 +1403,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6644641204</x:v>
+        <x:v>45912.3307881597</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1435,7 +1435,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.3307881597</x:v>
+        <x:v>45906.6651898148</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1467,7 +1467,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6651898148</x:v>
+        <x:v>45913.7423774306</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1499,7 +1499,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.7423774306</x:v>
+        <x:v>45912.3300846412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1531,7 +1531,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3300846412</x:v>
+        <x:v>45909.4149998032</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1563,7 +1563,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149998032</x:v>
+        <x:v>45906.4153670949</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1595,7 +1595,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4153670949</x:v>
+        <x:v>45906.4143751157</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1627,7 +1627,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4143751157</x:v>
+        <x:v>45906.4155851505</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1659,7 +1659,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45912.3302561343</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1691,7 +1691,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3302561343</x:v>
+        <x:v>45912.330384919</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1723,7 +1723,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.330384919</x:v>
+        <x:v>45909.4149411227</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1755,7 +1755,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4149411227</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1787,7 +1787,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45913.7424805208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1819,7 +1819,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7424805208</x:v>
+        <x:v>45913.7429113426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1851,7 +1851,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7429113426</x:v>
+        <x:v>45906.6644744213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1883,7 +1883,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644744213</x:v>
+        <x:v>45906.4143678588</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1915,7 +1915,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45913.7426574884</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1947,7 +1947,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7426574884</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1979,7 +1979,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -2011,7 +2011,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.6651458681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2043,7 +2043,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6651458681</x:v>
+        <x:v>45912.3307059375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2075,7 +2075,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3307059375</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2107,7 +2107,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2139,7 +2139,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2171,7 +2171,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.7062605324</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2203,7 +2203,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2235,7 +2235,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.7062605324</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2267,7 +2267,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2299,7 +2299,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45927.071833912</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2331,7 +2331,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2363,7 +2363,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.071833912</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2395,7 +2395,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2427,7 +2427,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2459,7 +2459,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2491,7 +2491,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2523,7 +2523,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2555,7 +2555,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45909.4148355324</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2587,7 +2587,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2619,7 +2619,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4148355324</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2651,7 +2651,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2683,7 +2683,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45913.7443521644</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2715,7 +2715,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2747,7 +2747,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2779,7 +2779,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2811,7 +2811,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2843,7 +2843,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45909.415056331</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2875,7 +2875,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.415056331</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2907,7 +2907,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45922.9121823727</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2939,7 +2939,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45909.4148507755</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2971,7 +2971,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45909.4148507755</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -3003,7 +3003,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3035,7 +3035,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3067,7 +3067,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3099,7 +3099,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3131,7 +3131,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3163,7 +3163,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3195,7 +3195,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3227,7 +3227,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3259,7 +3259,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3291,7 +3291,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3323,7 +3323,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3579,7 +3579,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45927.4353445602</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -510,6 +510,15 @@
     <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
   </x:si>
   <x:si>
+    <x:t>1220018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن محمد سيد خليفه احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210388</x:t>
   </x:si>
   <x:si>
@@ -607,15 +616,6 @@
   </x:si>
   <x:si>
     <x:t>Mohmoud Ali Abas Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مدحت محمود محمد متولي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210299</x:t>
@@ -2971,7 +2971,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45927.6882940162</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -3003,7 +3003,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3035,7 +3035,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3067,7 +3067,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3099,7 +3099,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3131,7 +3131,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45927.4203751157</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3163,7 +3163,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45927.4168738426</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3195,7 +3195,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3227,7 +3227,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3259,7 +3259,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3291,7 +3291,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3323,7 +3323,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3579,7 +3579,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45927.4353445602</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -276,15 +276,6 @@
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220111</x:t>
   </x:si>
   <x:si>
@@ -373,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Khaled Elsaid Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220134</x:t>
@@ -2139,7 +2139,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.7062605324</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2171,7 +2171,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.7062605324</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2203,7 +2203,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2235,7 +2235,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2267,7 +2267,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45927.071833912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2299,7 +2299,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.071833912</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2331,7 +2331,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2363,7 +2363,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2395,7 +2395,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2427,7 +2427,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2459,7 +2459,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45929.370265706</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -246,7 +246,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220325</x:t>
@@ -282,7 +282,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220255</x:t>
@@ -309,7 +309,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1210252</x:t>
@@ -651,7 +651,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210346</x:t>
@@ -534,7 +534,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -570,7 +570,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>4220140</x:t>
@@ -687,7 +687,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>

--- a/downloaded_files/CMPS446_Lecture-35546.xlsx
+++ b/downloaded_files/CMPS446_Lecture-35546.xlsx
@@ -246,7 +246,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220325</x:t>
